--- a/Work/大鼠数据说明.xlsx
+++ b/Work/大鼠数据说明.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PET-CT" sheetId="2" r:id="rId1"/>
+    <sheet name="FMRI" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>一、</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,12 +247,69 @@
     <t>不同剂量相同编号不是同一只老鼠 因为PET每次只能做一个剂量，第一批次都做低剂量，第二批次都做中剂量，第三批次做高剂量。但在每批次扫的时候，有的老鼠动了，或者扫描质量有问题，就剔除了，所以存在编号漏缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>high_ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>med_ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>med_pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PET像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：PET像和CT像分文件夹保存，编号已对应，均为img+hdr格式的原始文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>propofol大鼠PETCT数据整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +348,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -361,9 +426,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,10 +722,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="3">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="3">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="3">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="3">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="3">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="3">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="3">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -698,11 +1103,11 @@
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="3" t="s">
@@ -722,7 +1127,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>20160215</v>
       </c>
       <c r="C9" s="3"/>
@@ -733,7 +1138,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
@@ -754,7 +1159,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -775,7 +1180,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,7 +1217,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>20160218</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -835,7 +1240,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -856,7 +1261,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -875,18 +1280,18 @@
       <c r="H16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
@@ -905,13 +1310,13 @@
       <c r="H17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="6"/>
@@ -923,7 +1328,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>20160219</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -946,7 +1351,7 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -967,7 +1372,7 @@
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1393,7 @@
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1414,7 @@
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1435,7 @@
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1051,15 +1456,15 @@
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="C27" s="3"/>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1073,87 +1478,63 @@
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:15">
       <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="3:8">
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="3:8">
+    <row r="34" spans="1:8">
       <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="3:8">
+    <row r="35" spans="1:8">
       <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="3:8">
+    <row r="36" spans="1:8">
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="3:8" ht="51" customHeight="1">
-      <c r="C38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+    <row r="38" spans="1:8" ht="51" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
